--- a/domain_files/ifdat/template/INCOME_TEMPLATE.xlsx
+++ b/domain_files/ifdat/template/INCOME_TEMPLATE.xlsx
@@ -642,7 +642,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -651,42 +651,42 @@
     <row r="3" ht="40" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr"/>
+          <t>DOMAIN</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IFDAT</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr"/>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>INCOME</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>IFDAT</t>
-        </is>
-      </c>
+          <t>SOURCE_ORG</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>INCOME</t>
-        </is>
-      </c>
+          <t>SOURCE_PERSON</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -705,7 +705,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -769,7 +769,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1139,10 +1139,10 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation sqref="B4:B20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'REVENUE_'!$A$1:$A$5</formula1>
+      <formula1>'REVENUE_'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'REVENUE_'!$B$1:$B$34</formula1>
+      <formula1>'REVENUE_'!$B$1:$B$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G20 I4:I20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'REVENUE_'!$C$1:$C$4</formula1>
@@ -1170,7 +1170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,12 +1181,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1203,12 +1203,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1259,213 +1259,225 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -1491,7 +1503,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1861,10 +1873,10 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation sqref="B4:B20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'EXPENSE_'!$A$1:$A$5</formula1>
+      <formula1>'EXPENSE_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'EXPENSE_'!$B$1:$B$34</formula1>
+      <formula1>'EXPENSE_'!$B$1:$B$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G20 I4:I20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'EXPENSE_'!$C$1:$C$4</formula1>
@@ -1892,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,12 +1915,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1925,12 +1937,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1947,12 +1959,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1964,12 +1976,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1981,213 +1993,250 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
